--- a/TestID/StudentList/studentListcs284.xlsx
+++ b/TestID/StudentList/studentListcs284.xlsx
@@ -23,28 +23,28 @@
     <t>Name Lastname</t>
   </si>
   <si>
-    <t>Homework Score</t>
-  </si>
-  <si>
-    <t>Quiz Score</t>
-  </si>
-  <si>
-    <t>Midterm Score</t>
-  </si>
-  <si>
-    <t>Final Score</t>
-  </si>
-  <si>
-    <t>HomeworkNet Score</t>
-  </si>
-  <si>
-    <t>QuizNet Score</t>
-  </si>
-  <si>
-    <t>MidtermNet Score</t>
-  </si>
-  <si>
-    <t>FinalNet Score</t>
+    <t>HW_Score</t>
+  </si>
+  <si>
+    <t>Q_Score</t>
+  </si>
+  <si>
+    <t>Midterm_Score</t>
+  </si>
+  <si>
+    <t>Final_Score</t>
+  </si>
+  <si>
+    <t>HMN_Score</t>
+  </si>
+  <si>
+    <t>QN_Score</t>
+  </si>
+  <si>
+    <t>MidtermN_Score</t>
+  </si>
+  <si>
+    <t>FinalN_Score</t>
   </si>
   <si>
     <t>Grade</t>
@@ -208,6 +208,10 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="true"/>
+    <col min="3" max="3" width="39.0625" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -258,7 +262,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -267,10 +271,10 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -279,7 +283,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="L2"/>
     </row>
@@ -339,7 +343,7 @@
         <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -351,7 +355,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="L4"/>
     </row>
@@ -375,7 +379,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -387,7 +391,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="L5"/>
     </row>
@@ -411,7 +415,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -423,7 +427,7 @@
         <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="L6"/>
     </row>
@@ -546,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
@@ -555,10 +559,10 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
@@ -567,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10"/>
     </row>
@@ -699,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="G14" t="n">
-        <v>60.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" t="n">
         <v>0.0</v>
@@ -711,7 +715,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="L14"/>
     </row>
@@ -1563,7 +1567,7 @@
         <v>0.0</v>
       </c>
       <c r="G38" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
@@ -1575,7 +1579,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="L38"/>
     </row>

--- a/TestID/StudentList/studentListcs284.xlsx
+++ b/TestID/StudentList/studentListcs284.xlsx
@@ -262,7 +262,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
@@ -271,10 +271,10 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H2" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -283,7 +283,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="L2"/>
     </row>

--- a/TestID/StudentList/studentListcs284.xlsx
+++ b/TestID/StudentList/studentListcs284.xlsx
@@ -442,7 +442,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
@@ -451,10 +451,10 @@
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -463,7 +463,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="L7"/>
     </row>
@@ -487,7 +487,7 @@
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -499,7 +499,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="L8"/>
     </row>
@@ -631,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>
@@ -643,7 +643,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="L12"/>
     </row>
@@ -667,7 +667,7 @@
         <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="H13" t="n">
         <v>0.0</v>
@@ -679,7 +679,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="L13"/>
     </row>

--- a/TestID/StudentList/studentListcs284.xlsx
+++ b/TestID/StudentList/studentListcs284.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>No.</t>
   </si>
@@ -53,7 +53,13 @@
     <t> นายฐิติกร กมลพรรณพร</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t> นายพีรวัส บดีพงศ์</t>
+  </si>
+  <si>
+    <t>C+</t>
   </si>
   <si>
     <t> นายธเนศ หาญพาณิชย์พันธ์</t>
@@ -285,7 +291,9 @@
       <c r="K2" t="n">
         <v>15.0</v>
       </c>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -295,7 +303,7 @@
         <v>5.909610247E9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -321,7 +329,9 @@
       <c r="K3" t="n">
         <v>0.0</v>
       </c>
-      <c r="L3"/>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -331,7 +341,7 @@
         <v>5.909610296E9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -357,7 +367,9 @@
       <c r="K4" t="n">
         <v>0.0</v>
       </c>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -367,7 +379,7 @@
         <v>5.909610312E9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -393,7 +405,9 @@
       <c r="K5" t="n">
         <v>0.0</v>
       </c>
-      <c r="L5"/>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -403,7 +417,7 @@
         <v>5.909610361E9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -429,7 +443,9 @@
       <c r="K6" t="n">
         <v>0.0</v>
       </c>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -439,7 +455,7 @@
         <v>5.909610379E9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>20.0</v>
@@ -465,7 +481,9 @@
       <c r="K7" t="n">
         <v>15.0</v>
       </c>
-      <c r="L7"/>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -475,7 +493,7 @@
         <v>5.909610387E9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -501,7 +519,9 @@
       <c r="K8" t="n">
         <v>15.0</v>
       </c>
-      <c r="L8"/>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -511,7 +531,7 @@
         <v>5.909610395E9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -537,7 +557,9 @@
       <c r="K9" t="n">
         <v>0.0</v>
       </c>
-      <c r="L9"/>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -547,7 +569,7 @@
         <v>5.909610411E9</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -573,7 +595,9 @@
       <c r="K10" t="n">
         <v>0.0</v>
       </c>
-      <c r="L10"/>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -583,7 +607,7 @@
         <v>5.909610429E9</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
@@ -609,7 +633,9 @@
       <c r="K11" t="n">
         <v>0.0</v>
       </c>
-      <c r="L11"/>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -619,7 +645,7 @@
         <v>5.909610437E9</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
@@ -645,7 +671,9 @@
       <c r="K12" t="n">
         <v>30.0</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -655,7 +683,7 @@
         <v>5.909610452E9</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
@@ -681,7 +709,9 @@
       <c r="K13" t="n">
         <v>30.0</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -691,7 +721,7 @@
         <v>5.90961046E9</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
@@ -717,7 +747,9 @@
       <c r="K14" t="n">
         <v>0.0</v>
       </c>
-      <c r="L14"/>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -727,7 +759,7 @@
         <v>5.909610494E9</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
@@ -753,7 +785,9 @@
       <c r="K15" t="n">
         <v>0.0</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -763,7 +797,7 @@
         <v>5.909610536E9</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
@@ -789,7 +823,9 @@
       <c r="K16" t="n">
         <v>0.0</v>
       </c>
-      <c r="L16"/>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -799,7 +835,7 @@
         <v>5.909610544E9</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
@@ -825,7 +861,9 @@
       <c r="K17" t="n">
         <v>0.0</v>
       </c>
-      <c r="L17"/>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -835,7 +873,7 @@
         <v>5.909610577E9</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
@@ -861,7 +899,9 @@
       <c r="K18" t="n">
         <v>0.0</v>
       </c>
-      <c r="L18"/>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -871,7 +911,7 @@
         <v>5.909610601E9</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
@@ -897,7 +937,9 @@
       <c r="K19" t="n">
         <v>0.0</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -907,7 +949,7 @@
         <v>5.909610627E9</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
@@ -933,7 +975,9 @@
       <c r="K20" t="n">
         <v>0.0</v>
       </c>
-      <c r="L20"/>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -943,7 +987,7 @@
         <v>5.909610643E9</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
@@ -969,7 +1013,9 @@
       <c r="K21" t="n">
         <v>0.0</v>
       </c>
-      <c r="L21"/>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -979,7 +1025,7 @@
         <v>5.90961065E9</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
@@ -1005,7 +1051,9 @@
       <c r="K22" t="n">
         <v>0.0</v>
       </c>
-      <c r="L22"/>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1015,7 +1063,7 @@
         <v>5.9096107E9</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
         <v>0.0</v>
@@ -1041,7 +1089,9 @@
       <c r="K23" t="n">
         <v>0.0</v>
       </c>
-      <c r="L23"/>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1051,7 +1101,7 @@
         <v>5.909610726E9</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
@@ -1077,7 +1127,9 @@
       <c r="K24" t="n">
         <v>0.0</v>
       </c>
-      <c r="L24"/>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1087,7 +1139,7 @@
         <v>5.909610734E9</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D25" t="n">
         <v>0.0</v>
@@ -1113,7 +1165,9 @@
       <c r="K25" t="n">
         <v>0.0</v>
       </c>
-      <c r="L25"/>
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1123,7 +1177,7 @@
         <v>5.909610742E9</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
@@ -1149,7 +1203,9 @@
       <c r="K26" t="n">
         <v>0.0</v>
       </c>
-      <c r="L26"/>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1159,7 +1215,7 @@
         <v>5.909610759E9</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
@@ -1185,7 +1241,9 @@
       <c r="K27" t="n">
         <v>0.0</v>
       </c>
-      <c r="L27"/>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1195,7 +1253,7 @@
         <v>5.909680018E9</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
@@ -1221,7 +1279,9 @@
       <c r="K28" t="n">
         <v>0.0</v>
       </c>
-      <c r="L28"/>
+      <c r="L28" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1231,7 +1291,7 @@
         <v>5.909680026E9</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
@@ -1257,7 +1317,9 @@
       <c r="K29" t="n">
         <v>0.0</v>
       </c>
-      <c r="L29"/>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1267,7 +1329,7 @@
         <v>5.909680034E9</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" t="n">
         <v>0.0</v>
@@ -1293,7 +1355,9 @@
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
-      <c r="L30"/>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1303,7 +1367,7 @@
         <v>5.909680042E9</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D31" t="n">
         <v>0.0</v>
@@ -1329,7 +1393,9 @@
       <c r="K31" t="n">
         <v>0.0</v>
       </c>
-      <c r="L31"/>
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1339,7 +1405,7 @@
         <v>5.909680059E9</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D32" t="n">
         <v>0.0</v>
@@ -1365,7 +1431,9 @@
       <c r="K32" t="n">
         <v>0.0</v>
       </c>
-      <c r="L32"/>
+      <c r="L32" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1375,7 +1443,7 @@
         <v>5.909680067E9</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D33" t="n">
         <v>0.0</v>
@@ -1401,7 +1469,9 @@
       <c r="K33" t="n">
         <v>0.0</v>
       </c>
-      <c r="L33"/>
+      <c r="L33" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1411,7 +1481,7 @@
         <v>5.909680083E9</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D34" t="n">
         <v>0.0</v>
@@ -1437,7 +1507,9 @@
       <c r="K34" t="n">
         <v>0.0</v>
       </c>
-      <c r="L34"/>
+      <c r="L34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1447,7 +1519,7 @@
         <v>5.909680091E9</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D35" t="n">
         <v>0.0</v>
@@ -1473,7 +1545,9 @@
       <c r="K35" t="n">
         <v>0.0</v>
       </c>
-      <c r="L35"/>
+      <c r="L35" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1483,7 +1557,7 @@
         <v>5.909680109E9</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D36" t="n">
         <v>0.0</v>
@@ -1509,7 +1583,9 @@
       <c r="K36" t="n">
         <v>0.0</v>
       </c>
-      <c r="L36"/>
+      <c r="L36" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1519,7 +1595,7 @@
         <v>5.909680117E9</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D37" t="n">
         <v>0.0</v>
@@ -1545,7 +1621,9 @@
       <c r="K37" t="n">
         <v>0.0</v>
       </c>
-      <c r="L37"/>
+      <c r="L37" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1555,7 +1633,7 @@
         <v>5.909680125E9</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
         <v>0.0</v>
@@ -1581,7 +1659,9 @@
       <c r="K38" t="n">
         <v>0.0</v>
       </c>
-      <c r="L38"/>
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
